--- a/to infinity and beyond 02.xlsx
+++ b/to infinity and beyond 02.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
   <si>
     <t>Object</t>
   </si>
@@ -325,6 +325,81 @@
   </si>
   <si>
     <t>telefone</t>
+  </si>
+  <si>
+    <t>long time no see</t>
+  </si>
+  <si>
+    <t>Quanto tempo hein</t>
+  </si>
+  <si>
+    <t>Where are you from</t>
+  </si>
+  <si>
+    <t>De onde você é ?</t>
+  </si>
+  <si>
+    <t>quantos anos você tem</t>
+  </si>
+  <si>
+    <t>how old are you (rall oldar you)</t>
+  </si>
+  <si>
+    <t>prazer em conhecê-lo</t>
+  </si>
+  <si>
+    <t>nice to meet you (nice to meet chiu)</t>
+  </si>
+  <si>
+    <t>tenha um bom dia</t>
+  </si>
+  <si>
+    <t>have a nice day (reva a nice day)</t>
+  </si>
+  <si>
+    <t>como vai / como vão as coisas</t>
+  </si>
+  <si>
+    <t>how´s it going? (rauzit going)</t>
+  </si>
+  <si>
+    <t>how are you doing?</t>
+  </si>
+  <si>
+    <t>how are you ?</t>
+  </si>
+  <si>
+    <t>como vai você?</t>
+  </si>
+  <si>
+    <t>o que você quer dizer?</t>
+  </si>
+  <si>
+    <t>what do you mean? (uoriu min)</t>
+  </si>
+  <si>
+    <t>que horas são ?</t>
+  </si>
+  <si>
+    <t>what time is it ? ( uotaim izit)</t>
+  </si>
+  <si>
+    <t>good morning !</t>
+  </si>
+  <si>
+    <t>bom dia</t>
+  </si>
+  <si>
+    <t>are you busy ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> você está ocupado ?</t>
+  </si>
+  <si>
+    <t>você está ocupada hoje a noite?</t>
+  </si>
+  <si>
+    <t>are you busy tonight ?</t>
   </si>
 </sst>
 </file>
@@ -455,14 +530,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -775,7 +850,7 @@
     <col min="1" max="1" width="42.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="1.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -787,10 +862,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -968,6 +1043,12 @@
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -976,6 +1057,12 @@
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -984,6 +1071,12 @@
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -992,6 +1085,12 @@
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1000,6 +1099,12 @@
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -1008,6 +1113,12 @@
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1016,6 +1127,12 @@
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1024,6 +1141,20 @@
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1032,25 +1163,39 @@
       <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>81</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1059,6 +1204,12 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">

--- a/to infinity and beyond 02.xlsx
+++ b/to infinity and beyond 02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7485"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7485" tabRatio="255"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="152">
   <si>
     <t>Object</t>
   </si>
@@ -400,13 +400,131 @@
   </si>
   <si>
     <t>are you busy tonight ?</t>
+  </si>
+  <si>
+    <t>AULA 07</t>
+  </si>
+  <si>
+    <t>PREPOSITIONS OF LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON </t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXT TO </t>
+  </si>
+  <si>
+    <t>EM CIMA DE // SOBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENTRO DE </t>
+  </si>
+  <si>
+    <t>EMBAIXO DE // DEBAIXO DE</t>
+  </si>
+  <si>
+    <t>AO LADO DE</t>
+  </si>
+  <si>
+    <t>ATRÁS DE</t>
+  </si>
+  <si>
+    <t>NA FRENTE DE</t>
+  </si>
+  <si>
+    <t>UNDER (ander)</t>
+  </si>
+  <si>
+    <t>BEHIND (birraind ) (barraind )</t>
+  </si>
+  <si>
+    <t>EM FRONT OF (infrôntov)</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>house ( raause )</t>
+  </si>
+  <si>
+    <t>se vc quer saber onde está algo diga where</t>
+  </si>
+  <si>
+    <t>Where (Uérrr ) = Onde</t>
+  </si>
+  <si>
+    <t>Where is ?</t>
+  </si>
+  <si>
+    <t>what´s this ?</t>
+  </si>
+  <si>
+    <t>O que é isto? / O que é isso?</t>
+  </si>
+  <si>
+    <t>significa: onde está</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nunca abreviamos para </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What´s it ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What is it ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UÓRIZIT ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,8 +563,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +619,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -517,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -537,6 +673,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -852,10 +992,13 @@
     <col min="3" max="3" width="1.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="1.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="69.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,9 +1009,15 @@
         <v>43</v>
       </c>
       <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -881,8 +1030,14 @@
       <c r="E3" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -895,8 +1050,14 @@
       <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +1070,14 @@
       <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -923,8 +1090,14 @@
       <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -937,8 +1110,14 @@
       <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,8 +1130,14 @@
       <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,7 +1151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -979,8 +1164,14 @@
       <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -993,8 +1184,14 @@
       <c r="E11" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1007,8 +1204,14 @@
       <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1225,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1035,8 +1238,14 @@
       <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1050,7 +1259,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1152,7 +1361,7 @@
       <c r="D23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1219,6 +1428,12 @@
       <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1339,6 +1554,10 @@
       <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="44" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/to infinity and beyond 02.xlsx
+++ b/to infinity and beyond 02.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="175">
   <si>
     <t>Object</t>
   </si>
@@ -518,6 +518,75 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>AULA 08</t>
+  </si>
+  <si>
+    <t>expression welcome</t>
+  </si>
+  <si>
+    <t>Welcome to + algum lugar</t>
+  </si>
+  <si>
+    <t>Bem Vindo A</t>
+  </si>
+  <si>
+    <t>Welcome to America</t>
+  </si>
+  <si>
+    <t>Bem Vindo a América</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a resposta para thank you </t>
+  </si>
+  <si>
+    <t>Thank You !</t>
+  </si>
+  <si>
+    <t>You're Welcome</t>
+  </si>
+  <si>
+    <t>Obrigado</t>
+  </si>
+  <si>
+    <t>De nada</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Chão</t>
+  </si>
+  <si>
+    <t>Parede</t>
+  </si>
+  <si>
+    <t>Sofá</t>
+  </si>
+  <si>
+    <t>Quadro</t>
+  </si>
+  <si>
+    <t>Abajur</t>
+  </si>
+  <si>
+    <t>Vaso</t>
+  </si>
+  <si>
+    <t>Picture (pickchur)</t>
+  </si>
+  <si>
+    <t>Vase (veize )</t>
+  </si>
+  <si>
+    <t>Wall (ú alll )</t>
+  </si>
+  <si>
+    <t>Sofa ( soufa)</t>
+  </si>
+  <si>
+    <t>Lamp (lempi )</t>
   </si>
 </sst>
 </file>
@@ -653,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -668,15 +737,18 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -992,7 +1064,7 @@
     <col min="3" max="3" width="1.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" style="14" customWidth="1"/>
     <col min="7" max="7" width="41.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="69.28515625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
@@ -1005,14 +1077,14 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="17"/>
+      <c r="G1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1272,8 +1344,14 @@
       <c r="E16" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1286,8 +1364,14 @@
       <c r="E17" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1300,8 +1384,14 @@
       <c r="E18" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1315,7 +1405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1328,8 +1418,11 @@
       <c r="E20" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1342,8 +1435,14 @@
       <c r="E21" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1356,8 +1455,14 @@
       <c r="E22" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
         <v>119</v>
       </c>
@@ -1365,7 +1470,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -1378,8 +1483,14 @@
       <c r="E24" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>4</v>
       </c>
@@ -1392,8 +1503,14 @@
       <c r="E25" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -1406,8 +1523,14 @@
       <c r="E26" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -1420,8 +1543,14 @@
       <c r="E27" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -1434,16 +1563,28 @@
       <c r="E28" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -1451,7 +1592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
@@ -1459,7 +1600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -1556,8 +1697,8 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/to infinity and beyond 02.xlsx
+++ b/to infinity and beyond 02.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="194">
   <si>
     <t>Object</t>
   </si>
@@ -587,6 +587,63 @@
   </si>
   <si>
     <t>Lamp (lempi )</t>
+  </si>
+  <si>
+    <t>Palavras relacionadas a TI</t>
+  </si>
+  <si>
+    <t>database service overview</t>
+  </si>
+  <si>
+    <t>visão geral do serviço de banco de dados</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visão geral </t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>implantar</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>mais recente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest security updates </t>
+  </si>
+  <si>
+    <t>últimas atualizações de segurança</t>
+  </si>
+  <si>
+    <t>Management tools</t>
+  </si>
+  <si>
+    <t>Ferramentas de gerenciamento</t>
+  </si>
+  <si>
+    <t>websites</t>
+  </si>
+  <si>
+    <t>Sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source-code </t>
+  </si>
+  <si>
+    <t>código fonte</t>
+  </si>
+  <si>
+    <t>sign-out</t>
+  </si>
+  <si>
+    <t>Sair</t>
   </si>
 </sst>
 </file>
@@ -645,7 +702,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +751,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -722,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -741,14 +804,21 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1067,29 +1137,36 @@
     <col min="6" max="6" width="1.7109375" style="14" customWidth="1"/>
     <col min="7" max="7" width="41.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="69.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="2" style="19" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="58.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="G1" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1108,8 +1185,14 @@
       <c r="H3" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1122,14 +1205,21 @@
       <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F4" s="19"/>
       <c r="G4" s="1" t="s">
         <v>131</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1148,8 +1238,14 @@
       <c r="H5" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1168,8 +1264,14 @@
       <c r="H6" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1188,8 +1290,14 @@
       <c r="H7" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1208,8 +1316,14 @@
       <c r="H8" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1222,8 +1336,14 @@
       <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1242,8 +1362,14 @@
       <c r="H10" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,8 +1388,14 @@
       <c r="H11" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1283,7 +1415,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1297,7 +1429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1449,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1384,10 +1516,10 @@
       <c r="E18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="16" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1701,8 +1833,9 @@
       <c r="B44" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
